--- a/vendor/mysql_audo_init/feature_field_rel.xlsx
+++ b/vendor/mysql_audo_init/feature_field_rel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -474,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
@@ -488,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
@@ -502,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
@@ -516,82 +512,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/vendor/mysql_audo_init/feature_field_rel.xlsx
+++ b/vendor/mysql_audo_init/feature_field_rel.xlsx
@@ -66,11 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_card_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>

--- a/vendor/mysql_audo_init/feature_field_rel.xlsx
+++ b/vendor/mysql_audo_init/feature_field_rel.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +45,162 @@
     <t>tianyan_black</t>
   </si>
   <si>
-    <t>is_tianwang_gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_tianwang_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_tianwang_multi_loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_tianyan_black</t>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_loan_agency</t>
+  </si>
+  <si>
+    <t>is_organization_g_black</t>
+  </si>
+  <si>
+    <t>is_netsky_black</t>
+  </si>
+  <si>
+    <t>is_netsky_longloan</t>
+  </si>
+  <si>
+    <t>is_skyeye_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_court_shixin</t>
+  </si>
+  <si>
+    <t>is_net_black</t>
+  </si>
+  <si>
+    <t>is_owner_mobile</t>
+  </si>
+  <si>
+    <t>personal_income_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_negative_info</t>
+  </si>
+  <si>
+    <t>is_netsky_grey</t>
+  </si>
+  <si>
+    <t>is_court_zhixing</t>
+  </si>
+  <si>
+    <t>借款人年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中贷款中介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中机构g黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中天网黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中天网多头贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中天眼黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中失信被执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中网贷黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机实名认证</t>
+  </si>
+  <si>
+    <t>个人收入和市平均工资的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中个人不良信息检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中天网灰名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否命中被执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_agency</t>
+  </si>
+  <si>
+    <t>agentg_black</t>
+  </si>
+  <si>
+    <t>court_shixin_a_s</t>
+  </si>
+  <si>
+    <t>net_black_a_s</t>
+  </si>
+  <si>
+    <t>telecom_mobile_identity_s</t>
+  </si>
+  <si>
+    <t>yd_mobile_identity_s</t>
+  </si>
+  <si>
+    <t>china_mobile_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_local</t>
+  </si>
+  <si>
+    <t>mobile_online_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps_location</t>
+  </si>
+  <si>
+    <t>手机号码归属地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号在网时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度获取地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_locale</t>
+  </si>
+  <si>
+    <t>telecom_mobile_online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geo_location</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,8 +212,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>unicom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_info_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_zhixing_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicome_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps_longitude</t>
+  </si>
+  <si>
+    <t>gps_latitude</t>
   </si>
 </sst>
 </file>
@@ -101,20 +265,78 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -123,12 +345,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,118 +664,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E15:E16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -554,18 +1298,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>